--- a/Caratterizzazione_THGEM_2.xlsx
+++ b/Caratterizzazione_THGEM_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ireneciraldo/Desktop/graphics_testbeam_mar20_fullthgem/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peppe\Desktop\LaTex\Report_THGEM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A67900-EB44-6A4F-9705-9427579E80F5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42208A42-0F29-41A9-91F9-0FC4C9B533A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="2" xr2:uid="{ACFC7C87-C28D-4487-B063-88156E979354}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{ACFC7C87-C28D-4487-B063-88156E979354}"/>
   </bookViews>
   <sheets>
     <sheet name="alpha-crono" sheetId="1" r:id="rId1"/>
@@ -19,10 +19,18 @@
     <sheet name="test_2020-03-09" sheetId="3" r:id="rId4"/>
     <sheet name="Calculations" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1046,10 +1054,10 @@
     <t>Rate_tracker (pps)</t>
   </si>
   <si>
-    <t>Ibeam (pA) calculated from MXFC1</t>
-  </si>
-  <si>
     <t>Ibeam (pA) from FC</t>
+  </si>
+  <si>
+    <t>Ibeam (pA) calc from MXFC1</t>
   </si>
 </sst>
 </file>
@@ -1280,7 +1288,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1466,9 +1474,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1790,22 +1795,22 @@
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.1640625" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.109375" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" customWidth="1"/>
-    <col min="9" max="9" width="33.83203125" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" customWidth="1"/>
+    <col min="9" max="9" width="33.77734375" customWidth="1"/>
     <col min="10" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:61" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1886,7 +1891,7 @@
       <c r="BH1" s="1"/>
       <c r="BI1" s="1"/>
     </row>
-    <row r="2" spans="1:61" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>43802</v>
       </c>
@@ -1967,7 +1972,7 @@
       <c r="BH2" s="1"/>
       <c r="BI2" s="1"/>
     </row>
-    <row r="3" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>43803</v>
       </c>
@@ -2048,7 +2053,7 @@
       <c r="BH3" s="1"/>
       <c r="BI3" s="1"/>
     </row>
-    <row r="4" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>43803</v>
       </c>
@@ -2129,7 +2134,7 @@
       <c r="BH4" s="1"/>
       <c r="BI4" s="1"/>
     </row>
-    <row r="5" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>43803</v>
       </c>
@@ -2210,7 +2215,7 @@
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
     </row>
-    <row r="6" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>43803</v>
       </c>
@@ -2291,7 +2296,7 @@
       <c r="BH6" s="1"/>
       <c r="BI6" s="1"/>
     </row>
-    <row r="7" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>43804</v>
       </c>
@@ -2372,7 +2377,7 @@
       <c r="BH7" s="1"/>
       <c r="BI7" s="1"/>
     </row>
-    <row r="8" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>43805</v>
       </c>
@@ -2453,7 +2458,7 @@
       <c r="BH8" s="1"/>
       <c r="BI8" s="1"/>
     </row>
-    <row r="9" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>43805</v>
       </c>
@@ -2534,7 +2539,7 @@
       <c r="BH9" s="1"/>
       <c r="BI9" s="1"/>
     </row>
-    <row r="10" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>43808</v>
       </c>
@@ -2615,7 +2620,7 @@
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
     </row>
-    <row r="11" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>43808</v>
       </c>
@@ -2696,7 +2701,7 @@
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
     </row>
-    <row r="12" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>43808</v>
       </c>
@@ -2777,7 +2782,7 @@
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
     </row>
-    <row r="13" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>43808</v>
       </c>
@@ -2858,7 +2863,7 @@
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
     </row>
-    <row r="14" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>43808</v>
       </c>
@@ -2939,7 +2944,7 @@
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
     </row>
-    <row r="15" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>43808</v>
       </c>
@@ -3020,7 +3025,7 @@
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
     </row>
-    <row r="16" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>43881</v>
       </c>
@@ -3101,7 +3106,7 @@
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
     </row>
-    <row r="17" spans="1:61" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:61" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>43881</v>
       </c>
@@ -3182,7 +3187,7 @@
       <c r="BH17" s="1"/>
       <c r="BI17" s="1"/>
     </row>
-    <row r="18" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="24">
         <v>43810</v>
       </c>
@@ -3263,7 +3268,7 @@
       <c r="BH18" s="1"/>
       <c r="BI18" s="1"/>
     </row>
-    <row r="19" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>43810</v>
       </c>
@@ -3338,7 +3343,7 @@
       <c r="BH19" s="1"/>
       <c r="BI19" s="1"/>
     </row>
-    <row r="20" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>43810</v>
       </c>
@@ -3419,7 +3424,7 @@
       <c r="BH20" s="1"/>
       <c r="BI20" s="1"/>
     </row>
-    <row r="21" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>43816</v>
       </c>
@@ -3500,7 +3505,7 @@
       <c r="BH21" s="1"/>
       <c r="BI21" s="1"/>
     </row>
-    <row r="22" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>43816</v>
       </c>
@@ -3581,7 +3586,7 @@
       <c r="BH22" s="1"/>
       <c r="BI22" s="1"/>
     </row>
-    <row r="23" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>43817</v>
       </c>
@@ -3662,7 +3667,7 @@
       <c r="BH23" s="1"/>
       <c r="BI23" s="1"/>
     </row>
-    <row r="24" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>43817</v>
       </c>
@@ -3743,7 +3748,7 @@
       <c r="BH24" s="1"/>
       <c r="BI24" s="1"/>
     </row>
-    <row r="25" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>43837</v>
       </c>
@@ -3824,7 +3829,7 @@
       <c r="BH25" s="1"/>
       <c r="BI25" s="1"/>
     </row>
-    <row r="26" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>43837</v>
       </c>
@@ -3905,7 +3910,7 @@
       <c r="BH26" s="1"/>
       <c r="BI26" s="1"/>
     </row>
-    <row r="27" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>43837</v>
       </c>
@@ -3986,7 +3991,7 @@
       <c r="BH27" s="1"/>
       <c r="BI27" s="1"/>
     </row>
-    <row r="28" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>43837</v>
       </c>
@@ -4067,7 +4072,7 @@
       <c r="BH28" s="1"/>
       <c r="BI28" s="1"/>
     </row>
-    <row r="29" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>43837</v>
       </c>
@@ -4148,7 +4153,7 @@
       <c r="BH29" s="1"/>
       <c r="BI29" s="1"/>
     </row>
-    <row r="30" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
         <v>43865</v>
       </c>
@@ -4229,7 +4234,7 @@
       <c r="BH30" s="1"/>
       <c r="BI30" s="1"/>
     </row>
-    <row r="31" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
         <v>43865</v>
       </c>
@@ -4310,7 +4315,7 @@
       <c r="BH31" s="1"/>
       <c r="BI31" s="1"/>
     </row>
-    <row r="32" spans="1:61" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:61" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="19">
         <v>43865</v>
       </c>
@@ -4391,7 +4396,7 @@
       <c r="BH32" s="1"/>
       <c r="BI32" s="1"/>
     </row>
-    <row r="33" spans="1:61" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:61" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -4454,7 +4459,7 @@
       <c r="BH33" s="1"/>
       <c r="BI33" s="1"/>
     </row>
-    <row r="34" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -4517,7 +4522,7 @@
       <c r="BH34" s="1"/>
       <c r="BI34" s="1"/>
     </row>
-    <row r="35" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -4580,7 +4585,7 @@
       <c r="BH35" s="1"/>
       <c r="BI35" s="1"/>
     </row>
-    <row r="36" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -4643,7 +4648,7 @@
       <c r="BH36" s="1"/>
       <c r="BI36" s="1"/>
     </row>
-    <row r="37" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -4706,7 +4711,7 @@
       <c r="BH37" s="1"/>
       <c r="BI37" s="1"/>
     </row>
-    <row r="38" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -4769,7 +4774,7 @@
       <c r="BH38" s="1"/>
       <c r="BI38" s="1"/>
     </row>
-    <row r="39" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -4832,7 +4837,7 @@
       <c r="BH39" s="1"/>
       <c r="BI39" s="1"/>
     </row>
-    <row r="40" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4895,7 +4900,7 @@
       <c r="BH40" s="1"/>
       <c r="BI40" s="1"/>
     </row>
-    <row r="41" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4958,7 +4963,7 @@
       <c r="BH41" s="1"/>
       <c r="BI41" s="1"/>
     </row>
-    <row r="42" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -5021,7 +5026,7 @@
       <c r="BH42" s="1"/>
       <c r="BI42" s="1"/>
     </row>
-    <row r="43" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -5084,7 +5089,7 @@
       <c r="BH43" s="1"/>
       <c r="BI43" s="1"/>
     </row>
-    <row r="44" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -5147,7 +5152,7 @@
       <c r="BH44" s="1"/>
       <c r="BI44" s="1"/>
     </row>
-    <row r="45" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -5210,7 +5215,7 @@
       <c r="BH45" s="1"/>
       <c r="BI45" s="1"/>
     </row>
-    <row r="46" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -5273,7 +5278,7 @@
       <c r="BH46" s="1"/>
       <c r="BI46" s="1"/>
     </row>
-    <row r="47" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -5336,7 +5341,7 @@
       <c r="BH47" s="1"/>
       <c r="BI47" s="1"/>
     </row>
-    <row r="48" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -5399,7 +5404,7 @@
       <c r="BH48" s="1"/>
       <c r="BI48" s="1"/>
     </row>
-    <row r="49" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -5462,7 +5467,7 @@
       <c r="BH49" s="1"/>
       <c r="BI49" s="1"/>
     </row>
-    <row r="50" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -5525,7 +5530,7 @@
       <c r="BH50" s="1"/>
       <c r="BI50" s="1"/>
     </row>
-    <row r="51" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -5588,7 +5593,7 @@
       <c r="BH51" s="1"/>
       <c r="BI51" s="1"/>
     </row>
-    <row r="52" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -5651,7 +5656,7 @@
       <c r="BH52" s="1"/>
       <c r="BI52" s="1"/>
     </row>
-    <row r="53" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -5714,7 +5719,7 @@
       <c r="BH53" s="1"/>
       <c r="BI53" s="1"/>
     </row>
-    <row r="54" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -5777,7 +5782,7 @@
       <c r="BH54" s="1"/>
       <c r="BI54" s="1"/>
     </row>
-    <row r="55" spans="1:61" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:61" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -5855,24 +5860,24 @@
       <selection activeCell="K17" sqref="K17:M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
     <col min="7" max="7" width="36.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" customWidth="1"/>
-    <col min="10" max="10" width="23.5" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" customWidth="1"/>
     <col min="13" max="13" width="13.33203125" customWidth="1"/>
-    <col min="14" max="14" width="14.83203125" customWidth="1"/>
+    <col min="14" max="14" width="14.77734375" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5885,7 +5890,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
       <c r="B2" s="27" t="s">
         <v>66</v>
@@ -5905,7 +5910,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5921,7 +5926,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="30" t="s">
@@ -5958,7 +5963,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="31" t="s">
         <v>70</v>
@@ -5995,7 +6000,7 @@
       </c>
       <c r="O5" s="34"/>
     </row>
-    <row r="6" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28">
@@ -6028,7 +6033,7 @@
       </c>
       <c r="O6" s="33"/>
     </row>
-    <row r="7" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28">
@@ -6061,7 +6066,7 @@
       </c>
       <c r="O7" s="33"/>
     </row>
-    <row r="8" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28">
@@ -6094,7 +6099,7 @@
       </c>
       <c r="O8" s="35"/>
     </row>
-    <row r="9" spans="1:15" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28">
@@ -6131,7 +6136,7 @@
       </c>
       <c r="O9" s="34"/>
     </row>
-    <row r="10" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="28"/>
       <c r="C10" s="28">
@@ -6166,7 +6171,7 @@
       </c>
       <c r="O10" s="33"/>
     </row>
-    <row r="11" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28">
@@ -6199,7 +6204,7 @@
       </c>
       <c r="O11" s="33"/>
     </row>
-    <row r="12" spans="1:15" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="31" t="s">
         <v>13</v>
@@ -6234,7 +6239,7 @@
       </c>
       <c r="O12" s="33"/>
     </row>
-    <row r="13" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="28"/>
       <c r="C13" s="28">
@@ -6267,7 +6272,7 @@
       </c>
       <c r="O13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28">
@@ -6300,7 +6305,7 @@
       </c>
       <c r="O14" s="33"/>
     </row>
-    <row r="15" spans="1:15" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="19.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="35"/>
       <c r="C15" s="28">
@@ -6337,7 +6342,7 @@
       </c>
       <c r="O15" s="34"/>
     </row>
-    <row r="16" spans="1:15" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="31" t="s">
         <v>16</v>
@@ -6372,7 +6377,7 @@
       </c>
       <c r="O16" s="33"/>
     </row>
-    <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="28"/>
       <c r="C17" s="28">
@@ -6405,7 +6410,7 @@
       </c>
       <c r="O17" s="33"/>
     </row>
-    <row r="18" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="28"/>
       <c r="C18" s="28">
@@ -6438,7 +6443,7 @@
       </c>
       <c r="O18" s="35"/>
     </row>
-    <row r="19" spans="1:15" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="28"/>
       <c r="C19" s="28">
@@ -6459,7 +6464,7 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:15" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="32"/>
       <c r="C20" s="32">
@@ -6482,7 +6487,7 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:15" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6504,30 +6509,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E260431C-5552-43E0-806B-E171CCC2519A}">
   <dimension ref="A1:BO58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" customWidth="1"/>
-    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
     <col min="5" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="8" width="18.1640625" customWidth="1"/>
-    <col min="9" max="10" width="18.5" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" customWidth="1"/>
-    <col min="13" max="13" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="32.88671875" customWidth="1"/>
+    <col min="9" max="10" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" customWidth="1"/>
     <col min="14" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="39.1640625" customWidth="1"/>
+    <col min="15" max="15" width="39.109375" customWidth="1"/>
     <col min="16" max="16" width="91" customWidth="1"/>
-    <col min="17" max="17" width="19.83203125" customWidth="1"/>
+    <col min="17" max="17" width="19.77734375" customWidth="1"/>
     <col min="18" max="18" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:67" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6546,11 +6552,11 @@
       <c r="F1" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="G1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>165</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>164</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>78</v>
@@ -6628,7 +6634,7 @@
       <c r="BN1" s="1"/>
       <c r="BO1" s="1"/>
     </row>
-    <row r="2" spans="1:67" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:67" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10">
         <v>43899</v>
       </c>
@@ -6723,7 +6729,7 @@
       <c r="BN2" s="1"/>
       <c r="BO2" s="1"/>
     </row>
-    <row r="3" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="14">
         <v>43899</v>
       </c>
@@ -6822,7 +6828,7 @@
       <c r="BN3" s="1"/>
       <c r="BO3" s="1"/>
     </row>
-    <row r="4" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="14">
         <v>43899</v>
       </c>
@@ -6921,7 +6927,7 @@
       <c r="BN4" s="1"/>
       <c r="BO4" s="1"/>
     </row>
-    <row r="5" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="14">
         <v>43899</v>
       </c>
@@ -7016,7 +7022,7 @@
       <c r="BN5" s="1"/>
       <c r="BO5" s="1"/>
     </row>
-    <row r="6" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="14">
         <v>43899</v>
       </c>
@@ -7109,7 +7115,7 @@
       <c r="BN6" s="1"/>
       <c r="BO6" s="1"/>
     </row>
-    <row r="7" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="14">
         <v>43899</v>
       </c>
@@ -7210,7 +7216,7 @@
       <c r="BN7" s="1"/>
       <c r="BO7" s="1"/>
     </row>
-    <row r="8" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="14">
         <v>43899</v>
       </c>
@@ -7307,7 +7313,7 @@
       <c r="BN8" s="1"/>
       <c r="BO8" s="1"/>
     </row>
-    <row r="9" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="14">
         <v>43899</v>
       </c>
@@ -7404,7 +7410,7 @@
       <c r="BN9" s="1"/>
       <c r="BO9" s="1"/>
     </row>
-    <row r="10" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="14">
         <v>43899</v>
       </c>
@@ -7501,7 +7507,7 @@
       <c r="BN10" s="1"/>
       <c r="BO10" s="1"/>
     </row>
-    <row r="11" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="14">
         <v>43899</v>
       </c>
@@ -7598,7 +7604,7 @@
       <c r="BN11" s="1"/>
       <c r="BO11" s="1"/>
     </row>
-    <row r="12" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="14">
         <v>43899</v>
       </c>
@@ -7699,7 +7705,7 @@
       <c r="BN12" s="1"/>
       <c r="BO12" s="1"/>
     </row>
-    <row r="13" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>43899</v>
       </c>
@@ -7800,7 +7806,7 @@
       <c r="BN13" s="1"/>
       <c r="BO13" s="1"/>
     </row>
-    <row r="14" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>43899</v>
       </c>
@@ -7895,7 +7901,7 @@
       <c r="BN14" s="1"/>
       <c r="BO14" s="1"/>
     </row>
-    <row r="15" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>43899</v>
       </c>
@@ -7988,7 +7994,7 @@
       <c r="BN15" s="1"/>
       <c r="BO15" s="1"/>
     </row>
-    <row r="16" spans="1:67" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:67" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="49">
         <v>43899</v>
       </c>
@@ -8089,7 +8095,7 @@
       <c r="BN16" s="1"/>
       <c r="BO16" s="1"/>
     </row>
-    <row r="17" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>43900</v>
       </c>
@@ -8184,7 +8190,7 @@
       <c r="BN17" s="1"/>
       <c r="BO17" s="1"/>
     </row>
-    <row r="18" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>43900</v>
       </c>
@@ -8279,7 +8285,7 @@
       <c r="BN18" s="1"/>
       <c r="BO18" s="1"/>
     </row>
-    <row r="19" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>43900</v>
       </c>
@@ -8378,7 +8384,7 @@
       <c r="BN19" s="1"/>
       <c r="BO19" s="1"/>
     </row>
-    <row r="20" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>43900</v>
       </c>
@@ -8477,7 +8483,7 @@
       <c r="BN20" s="1"/>
       <c r="BO20" s="1"/>
     </row>
-    <row r="21" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>43900</v>
       </c>
@@ -8576,7 +8582,7 @@
       <c r="BN21" s="1"/>
       <c r="BO21" s="1"/>
     </row>
-    <row r="22" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>43900</v>
       </c>
@@ -8671,7 +8677,7 @@
       <c r="BN22" s="1"/>
       <c r="BO22" s="1"/>
     </row>
-    <row r="23" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>43900</v>
       </c>
@@ -8764,7 +8770,7 @@
       <c r="BN23" s="1"/>
       <c r="BO23" s="1"/>
     </row>
-    <row r="24" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>43900</v>
       </c>
@@ -8863,7 +8869,7 @@
       <c r="BN24" s="1"/>
       <c r="BO24" s="1"/>
     </row>
-    <row r="25" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>43900</v>
       </c>
@@ -8962,7 +8968,7 @@
       <c r="BN25" s="1"/>
       <c r="BO25" s="1"/>
     </row>
-    <row r="26" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>43900</v>
       </c>
@@ -9061,7 +9067,7 @@
       <c r="BN26" s="1"/>
       <c r="BO26" s="1"/>
     </row>
-    <row r="27" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>43900</v>
       </c>
@@ -9160,7 +9166,7 @@
       <c r="BN27" s="1"/>
       <c r="BO27" s="1"/>
     </row>
-    <row r="28" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>43900</v>
       </c>
@@ -9259,7 +9265,7 @@
       <c r="BN28" s="1"/>
       <c r="BO28" s="1"/>
     </row>
-    <row r="29" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>43900</v>
       </c>
@@ -9281,7 +9287,9 @@
       <c r="G29" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="13">
+        <v>50</v>
+      </c>
       <c r="I29" s="13">
         <v>0.97199999999999998</v>
       </c>
@@ -9354,7 +9362,7 @@
       <c r="BN29" s="1"/>
       <c r="BO29" s="1"/>
     </row>
-    <row r="30" spans="1:67" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:67" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="19">
         <v>43900</v>
       </c>
@@ -9376,7 +9384,9 @@
       <c r="G30" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="H30" s="21"/>
+      <c r="H30" s="21">
+        <v>50</v>
+      </c>
       <c r="I30" s="21">
         <v>0.97199999999999998</v>
       </c>
@@ -9447,7 +9457,7 @@
       <c r="BN30" s="1"/>
       <c r="BO30" s="1"/>
     </row>
-    <row r="31" spans="1:67" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:67" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A31" s="15"/>
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
@@ -9516,7 +9526,7 @@
       <c r="BN31" s="1"/>
       <c r="BO31" s="1"/>
     </row>
-    <row r="32" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -9585,7 +9595,7 @@
       <c r="BN32" s="1"/>
       <c r="BO32" s="1"/>
     </row>
-    <row r="33" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="3"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -9654,7 +9664,7 @@
       <c r="BN33" s="1"/>
       <c r="BO33" s="1"/>
     </row>
-    <row r="34" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="5"/>
       <c r="C34" s="2"/>
@@ -9723,7 +9733,7 @@
       <c r="BN34" s="1"/>
       <c r="BO34" s="1"/>
     </row>
-    <row r="35" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="3"/>
       <c r="B35" s="5"/>
       <c r="C35" s="2"/>
@@ -9792,7 +9802,7 @@
       <c r="BN35" s="1"/>
       <c r="BO35" s="1"/>
     </row>
-    <row r="36" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="3"/>
       <c r="B36" s="5"/>
       <c r="C36" s="2"/>
@@ -9861,7 +9871,7 @@
       <c r="BN36" s="1"/>
       <c r="BO36" s="1"/>
     </row>
-    <row r="37" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="5"/>
       <c r="C37" s="2"/>
@@ -9930,7 +9940,7 @@
       <c r="BN37" s="1"/>
       <c r="BO37" s="1"/>
     </row>
-    <row r="38" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="5"/>
       <c r="C38" s="2"/>
@@ -9999,7 +10009,7 @@
       <c r="BN38" s="1"/>
       <c r="BO38" s="1"/>
     </row>
-    <row r="39" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="3"/>
       <c r="B39" s="5"/>
       <c r="C39" s="2"/>
@@ -10068,7 +10078,7 @@
       <c r="BN39" s="1"/>
       <c r="BO39" s="1"/>
     </row>
-    <row r="40" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="3"/>
       <c r="B40" s="5"/>
       <c r="C40" s="2"/>
@@ -10137,7 +10147,7 @@
       <c r="BN40" s="1"/>
       <c r="BO40" s="1"/>
     </row>
-    <row r="41" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="3"/>
       <c r="B41" s="5"/>
       <c r="C41" s="2"/>
@@ -10206,7 +10216,7 @@
       <c r="BN41" s="1"/>
       <c r="BO41" s="1"/>
     </row>
-    <row r="42" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="3"/>
       <c r="B42" s="5"/>
       <c r="C42" s="2"/>
@@ -10275,7 +10285,7 @@
       <c r="BN42" s="1"/>
       <c r="BO42" s="1"/>
     </row>
-    <row r="43" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="5"/>
       <c r="C43" s="2"/>
@@ -10344,7 +10354,7 @@
       <c r="BN43" s="1"/>
       <c r="BO43" s="1"/>
     </row>
-    <row r="44" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="3"/>
       <c r="B44" s="5"/>
       <c r="C44" s="2"/>
@@ -10413,7 +10423,7 @@
       <c r="BN44" s="1"/>
       <c r="BO44" s="1"/>
     </row>
-    <row r="45" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="3"/>
       <c r="B45" s="5"/>
       <c r="C45" s="2"/>
@@ -10482,7 +10492,7 @@
       <c r="BN45" s="1"/>
       <c r="BO45" s="1"/>
     </row>
-    <row r="46" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="5"/>
       <c r="C46" s="2"/>
@@ -10551,7 +10561,7 @@
       <c r="BN46" s="1"/>
       <c r="BO46" s="1"/>
     </row>
-    <row r="47" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="3"/>
       <c r="B47" s="5"/>
       <c r="C47" s="2"/>
@@ -10620,7 +10630,7 @@
       <c r="BN47" s="1"/>
       <c r="BO47" s="1"/>
     </row>
-    <row r="48" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="3"/>
       <c r="B48" s="5"/>
       <c r="C48" s="2"/>
@@ -10689,7 +10699,7 @@
       <c r="BN48" s="1"/>
       <c r="BO48" s="1"/>
     </row>
-    <row r="49" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="3"/>
       <c r="B49" s="5"/>
       <c r="C49" s="2"/>
@@ -10758,7 +10768,7 @@
       <c r="BN49" s="1"/>
       <c r="BO49" s="1"/>
     </row>
-    <row r="50" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="3"/>
       <c r="B50" s="5"/>
       <c r="C50" s="2"/>
@@ -10827,7 +10837,7 @@
       <c r="BN50" s="1"/>
       <c r="BO50" s="1"/>
     </row>
-    <row r="51" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="3"/>
       <c r="B51" s="5"/>
       <c r="C51" s="2"/>
@@ -10896,7 +10906,7 @@
       <c r="BN51" s="1"/>
       <c r="BO51" s="1"/>
     </row>
-    <row r="52" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="5"/>
       <c r="C52" s="2"/>
@@ -10965,7 +10975,7 @@
       <c r="BN52" s="1"/>
       <c r="BO52" s="1"/>
     </row>
-    <row r="53" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="3"/>
       <c r="B53" s="5"/>
       <c r="C53" s="2"/>
@@ -11034,7 +11044,7 @@
       <c r="BN53" s="1"/>
       <c r="BO53" s="1"/>
     </row>
-    <row r="54" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="3"/>
       <c r="B54" s="5"/>
       <c r="C54" s="2"/>
@@ -11103,7 +11113,7 @@
       <c r="BN54" s="1"/>
       <c r="BO54" s="1"/>
     </row>
-    <row r="55" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="3"/>
       <c r="B55" s="5"/>
       <c r="C55" s="2"/>
@@ -11172,7 +11182,7 @@
       <c r="BN55" s="1"/>
       <c r="BO55" s="1"/>
     </row>
-    <row r="56" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="3"/>
       <c r="B56" s="5"/>
       <c r="C56" s="2"/>
@@ -11241,7 +11251,7 @@
       <c r="BN56" s="1"/>
       <c r="BO56" s="1"/>
     </row>
-    <row r="57" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="3"/>
       <c r="B57" s="5"/>
       <c r="C57" s="2"/>
@@ -11310,7 +11320,7 @@
       <c r="BN57" s="1"/>
       <c r="BO57" s="1"/>
     </row>
-    <row r="58" spans="1:67" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:67" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="3"/>
       <c r="B58" s="5"/>
       <c r="C58" s="2"/>
@@ -11394,30 +11404,30 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5" customWidth="1"/>
-    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.83203125" customWidth="1"/>
-    <col min="11" max="11" width="15.5" customWidth="1"/>
-    <col min="12" max="12" width="92.1640625" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" customWidth="1"/>
-    <col min="15" max="15" width="23.5" customWidth="1"/>
-    <col min="16" max="16" width="11.83203125" customWidth="1"/>
-    <col min="17" max="17" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" customWidth="1"/>
+    <col min="12" max="12" width="92.109375" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" customWidth="1"/>
+    <col min="15" max="15" width="23.44140625" customWidth="1"/>
+    <col min="16" max="16" width="11.77734375" customWidth="1"/>
+    <col min="17" max="17" width="14.77734375" customWidth="1"/>
     <col min="18" max="18" width="13.33203125" customWidth="1"/>
-    <col min="19" max="19" width="14.83203125" customWidth="1"/>
+    <col min="19" max="19" width="14.77734375" customWidth="1"/>
     <col min="20" max="20" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11435,7 +11445,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A2" s="2"/>
       <c r="B2" s="27" t="s">
         <v>66</v>
@@ -11453,7 +11463,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -11469,7 +11479,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="30" t="s">
@@ -11505,7 +11515,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="31" t="s">
         <v>13</v>
@@ -11541,7 +11551,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
       <c r="B6" s="28"/>
       <c r="C6" s="28">
@@ -11575,7 +11585,7 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2"/>
       <c r="B7" s="31" t="s">
         <v>16</v>
@@ -11611,7 +11621,7 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="28"/>
       <c r="C8" s="28">
@@ -11645,7 +11655,7 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="28"/>
       <c r="C9" s="28">
@@ -11679,7 +11689,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="54"/>
       <c r="C10" s="54">
@@ -11713,7 +11723,7 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="56"/>
       <c r="C11" s="55">
@@ -11747,7 +11757,7 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
       <c r="B12" s="33"/>
       <c r="C12" s="55">
@@ -11781,7 +11791,7 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
       <c r="B13" s="56"/>
       <c r="C13" s="57">
@@ -11815,7 +11825,7 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="33"/>
       <c r="C14" s="55">
@@ -11849,7 +11859,7 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="56"/>
       <c r="C15" s="57">
@@ -11883,7 +11893,7 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
       <c r="B16" s="35"/>
       <c r="C16" s="59">
@@ -11917,7 +11927,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:16" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="31" t="s">
         <v>122</v>
@@ -11953,7 +11963,7 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="32"/>
       <c r="C18" s="32">
@@ -11989,7 +11999,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -11998,7 +12008,7 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -12007,7 +12017,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" ht="26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="25.8" x14ac:dyDescent="0.5">
       <c r="B21" s="27" t="s">
         <v>72</v>
       </c>
@@ -12019,7 +12029,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -12029,7 +12039,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:16" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B23" s="2"/>
       <c r="C23" s="30" t="s">
         <v>4</v>
@@ -12062,7 +12072,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B24" s="31" t="s">
         <v>13</v>
       </c>
@@ -12097,7 +12107,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="28"/>
       <c r="C25" s="28">
         <v>20.7</v>
@@ -12130,7 +12140,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B26" s="31" t="s">
         <v>16</v>
       </c>
@@ -12165,7 +12175,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B27" s="28"/>
       <c r="C27" s="28">
         <v>20.7</v>
@@ -12198,7 +12208,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B28" s="28"/>
       <c r="C28" s="28">
         <v>20.7</v>
@@ -12231,7 +12241,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B29" s="28"/>
       <c r="C29" s="28">
         <v>20.7</v>
@@ -12264,7 +12274,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B30" s="28"/>
       <c r="C30" s="28">
         <v>20.7</v>
@@ -12297,7 +12307,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B31" s="54"/>
       <c r="C31" s="54">
         <v>20.7</v>
@@ -12330,7 +12340,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="18" x14ac:dyDescent="0.35">
       <c r="B32" s="56"/>
       <c r="C32" s="55">
         <v>20.7</v>
@@ -12363,7 +12373,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="64"/>
       <c r="C33" s="65">
         <v>20.7</v>
@@ -12394,7 +12404,7 @@
       </c>
       <c r="L33" s="67"/>
     </row>
-    <row r="34" spans="2:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:12" ht="18" x14ac:dyDescent="0.35">
       <c r="B34" s="33"/>
       <c r="C34" s="55">
         <v>20.7</v>
@@ -12427,7 +12437,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="33"/>
       <c r="C35" s="55">
         <v>20.7</v>
@@ -12458,7 +12468,7 @@
       </c>
       <c r="L35" s="61"/>
     </row>
-    <row r="36" spans="2:12" ht="20" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:12" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B36" s="31" t="s">
         <v>122</v>
       </c>
@@ -12493,7 +12503,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="32"/>
       <c r="C37" s="32">
         <v>20.7</v>
@@ -12526,7 +12536,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:12" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -12541,14 +12551,14 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>158</v>
       </c>
@@ -12574,7 +12584,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>145.69999999999999</v>
       </c>
